--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Istamosh\Desktop\ODE\GBB\Project\Project Siteplan Plot\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Istamosh\Desktop\ODE\GBB\Project\Project Siteplan Plot\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D45F1C-4673-481F-9807-4DFB2A4FCC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD54A30-5907-4558-A961-0BCBF6B37387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="10245" windowHeight="10920" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>code</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>specdetail</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>chartreuse</t>
   </si>
 </sst>
 </file>
@@ -116,9 +143,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -130,7 +160,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -152,25 +182,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I10">
+    <sortCondition ref="D1:D10"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[spec]]&amp;E2&amp;C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{7D003D77-5AE3-44E1-8DE0-1D2525E67279}" name="spec" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{778E65D8-8FF4-4AF5-98BB-BF164D002406}" name="hooktype" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{12F60DA8-7BF6-4971-AEB3-9FF4CC555930}" name="specdetail" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{12F60DA8-7BF6-4971-AEB3-9FF4CC555930}" name="specdetail" dataDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DFD14808-7748-40DC-B47C-AD3993DCC6F0}" name="orient"/>
-    <tableColumn id="7" xr3:uid="{06623992-763C-499D-8C0F-1E2DAE6B1D7D}" name="extra" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E75AC792-2743-4751-B83D-BC51B636560A}" name="expandx" dataDxfId="2">
-      <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2, $J$2:$L$4,2)+F2, VLOOKUP(B2,$J$2:$L$4,2))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{06623992-763C-499D-8C0F-1E2DAE6B1D7D}" name="extra" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E75AC792-2743-4751-B83D-BC51B636560A}" name="expandx" dataDxfId="1">
+      <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2, $K$2:$M$4,2)+F2, VLOOKUP(B2,$K$2:$M$4,3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D709E13A-9272-44EA-88E3-5C7F3CDDADA9}" name="expandy" dataDxfId="1">
-      <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2,$J$2:$L$4, 3), VLOOKUP(B2,$J$2:$L$4,3)+F2)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{D709E13A-9272-44EA-88E3-5C7F3CDDADA9}" name="expandy" dataDxfId="0">
+      <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2,$K$2:$M$4, 3), VLOOKUP(B2,$K$2:$M$4,2)+F2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{2AEC1907-52E1-4AAD-BA01-64D29D0AFE76}" name="color" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +519,7 @@
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,188 +544,334 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E2&amp;C2</f>
+        <v>subv</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10)</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f>IF(E2="v", VLOOKUP(B2, $K$2:$M$4,2)+F2, VLOOKUP(B2,$K$2:$M$4,3))</f>
+        <v>72</v>
+      </c>
+      <c r="H2" s="1">
+        <f>IF(E2="v", VLOOKUP(B2,$K$2:$M$4, 3), VLOOKUP(B2,$K$2:$M$4,2)+F2)</f>
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>72</v>
+      </c>
+      <c r="M2" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E3&amp;C3</f>
+        <v>subv25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <f>IF(E3="v", VLOOKUP(B3, $K$2:$M$4,2)+F3, VLOOKUP(B3,$K$2:$M$4,3))</f>
+        <v>102</v>
+      </c>
+      <c r="H3" s="1">
+        <f>IF(E3="v", VLOOKUP(B3,$K$2:$M$4, 3), VLOOKUP(B3,$K$2:$M$4,2)+F3)</f>
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>72</v>
+      </c>
+      <c r="M3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
+        <v>subv30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <f>IF(E4="v", VLOOKUP(B4, $K$2:$M$4,2)+F4, VLOOKUP(B4,$K$2:$M$4,3))</f>
+        <v>108</v>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(E4="v", VLOOKUP(B4,$K$2:$M$4, 3), VLOOKUP(B4,$K$2:$M$4,2)+F4)</f>
+        <v>120</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
+        <v>subv40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1">
+        <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
+        <v>120</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
+        <v>comv</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
+        <v>72</v>
+      </c>
+      <c r="H6" s="1">
+        <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
+        <v>144</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
+        <v>comh</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
+        <v>comh30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1">
+        <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
+        <v>108</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
+        <v>comv30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
+        <v>102</v>
+      </c>
+      <c r="H9" s="1">
+        <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
+        <v>144</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
         <v>comv36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C10">
         <v>36</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D10" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>36/72 (6x12) +36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F10" s="1">
         <v>36</v>
       </c>
-      <c r="G2" s="1">
-        <f>IF(E2="v", VLOOKUP(B2, $J$2:$L$4,2)+F2, VLOOKUP(B2,$J$2:$L$4,2))</f>
+      <c r="G10" s="1">
+        <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
         <v>108</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H4" si="0">IF(E2="v", VLOOKUP(B2,$J$2:$L$4, 3), VLOOKUP(B2,$J$2:$L$4,3)+F2)</f>
+      <c r="H10" s="1">
+        <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
         <v>144</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1">
-        <v>72</v>
-      </c>
-      <c r="L2" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E3&amp;C3</f>
-        <v>comv</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <f>IF(E3="v", VLOOKUP(B3, $J$2:$L$4,2)+F3, VLOOKUP(B3,$J$2:$L$4,2))</f>
-        <v>72</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1">
-        <v>72</v>
-      </c>
-      <c r="L3" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
-        <v>subv40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1">
-        <f>IF(E4="v", VLOOKUP(B4, $J$2:$L$4,2)+F4, VLOOKUP(B4,$J$2:$L$4,2))</f>
-        <v>120</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>60</v>
-      </c>
-      <c r="L4" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1">
-        <f>IF(E5="v", VLOOKUP(B5, $J$2:$L$4,2)+F5, VLOOKUP(B5,$J$2:$L$4,2))</f>
-        <v>108</v>
-      </c>
-      <c r="H5" s="1">
-        <f>IF(E5="v", VLOOKUP(B5,$J$2:$L$4, 3), VLOOKUP(B5,$J$2:$L$4,3)+F5)</f>
-        <v>120</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>subv</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <f>IF(E6="v", VLOOKUP(B6, $J$2:$L$4,2)+F6, VLOOKUP(B6,$J$2:$L$4,2))</f>
-        <v>72</v>
-      </c>
-      <c r="H6" s="1">
-        <f>IF(E6="v", VLOOKUP(B6,$J$2:$L$4, 3), VLOOKUP(B6,$J$2:$L$4,3)+F6)</f>
-        <v>120</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Istamosh\Desktop\ODE\GBB\Project\Project Siteplan Plot\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD54A30-5907-4558-A961-0BCBF6B37387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C4F95-E555-4B42-A47C-EDFDE672298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="600" windowWidth="10245" windowHeight="10920" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Istamosh\Desktop\ODE\GBB\Project\Project Siteplan Plot\SiteplanColorPlot\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C4F95-E555-4B42-A47C-EDFDE672298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985EF64-7C2F-4272-AD0D-4D341F6E1612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="10245" windowHeight="10920" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="1380" yWindow="3405" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>code</t>
   </si>
@@ -97,6 +103,9 @@
   </si>
   <si>
     <t>chartreuse</t>
+  </si>
+  <si>
+    <t>springgreen</t>
   </si>
 </sst>
 </file>
@@ -182,10 +191,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0">
-  <autoFilter ref="A1:I10" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I10">
-    <sortCondition ref="D1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="D1:D13"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -198,13 +207,13 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DFD14808-7748-40DC-B47C-AD3993DCC6F0}" name="orient"/>
     <tableColumn id="7" xr3:uid="{06623992-763C-499D-8C0F-1E2DAE6B1D7D}" name="extra" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E75AC792-2743-4751-B83D-BC51B636560A}" name="expandx" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{E75AC792-2743-4751-B83D-BC51B636560A}" name="expandx" dataDxfId="2">
       <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2, $K$2:$M$4,2)+F2, VLOOKUP(B2,$K$2:$M$4,3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D709E13A-9272-44EA-88E3-5C7F3CDDADA9}" name="expandy" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{D709E13A-9272-44EA-88E3-5C7F3CDDADA9}" name="expandy" dataDxfId="1">
       <calculatedColumnFormula>IF(E2="v", VLOOKUP(B2,$K$2:$M$4, 3), VLOOKUP(B2,$K$2:$M$4,2)+F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2AEC1907-52E1-4AAD-BA01-64D29D0AFE76}" name="color" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2AEC1907-52E1-4AAD-BA01-64D29D0AFE76}" name="color" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,34 +608,30 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E3&amp;C3</f>
-        <v>subv25</v>
+        <v>subh</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>25</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +25</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <f>IF(E3="v", VLOOKUP(B3, $K$2:$M$4,2)+F3, VLOOKUP(B3,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1">
         <f>IF(E3="v", VLOOKUP(B3,$K$2:$M$4, 3), VLOOKUP(B3,$K$2:$M$4,2)+F3)</f>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
@@ -640,36 +645,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
-        <v>subv30</v>
-      </c>
-      <c r="B4" t="s">
+        <v>subv25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +25</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <f>IF(E4="v", VLOOKUP(B4, $K$2:$M$4,2)+F4, VLOOKUP(B4,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1">
         <f>IF(E4="v", VLOOKUP(B4,$K$2:$M$4, 3), VLOOKUP(B4,$K$2:$M$4,2)+F4)</f>
         <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -685,192 +690,324 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv40</v>
+        <v>subv30</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="1">
         <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>comv</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>subh30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36</v>
+      </c>
       <c r="G6" s="1">
         <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
         <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+      <c r="A7" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>comh</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>subv40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>48</v>
+      </c>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+      <c r="A8" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>comh30</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+      <c r="D8" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>comv30</v>
+        <v>comh</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
-        <v>30</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>comv36</v>
-      </c>
-      <c r="B10" t="s">
+        <v>comh30</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>36</v>
       </c>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
+        <v>comv30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
+        <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
+        <v>102</v>
+      </c>
+      <c r="H11" s="1">
+        <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
+        <v>144</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
+        <v>comv36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <f>IF(E12="v", VLOOKUP(B12, $K$2:$M$4,2)+F12, VLOOKUP(B12,$K$2:$M$4,3))</f>
+        <v>108</v>
+      </c>
+      <c r="H12" s="1">
+        <f>IF(E12="v", VLOOKUP(B12,$K$2:$M$4, 3), VLOOKUP(B12,$K$2:$M$4,2)+F12)</f>
+        <v>144</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
+        <v>comh36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1">
+        <f>IF(E13="v", VLOOKUP(B13, $K$2:$M$4,2)+F13, VLOOKUP(B13,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H13" s="1">
+        <f>IF(E13="v", VLOOKUP(B13,$K$2:$M$4, 3), VLOOKUP(B13,$K$2:$M$4,2)+F13)</f>
+        <v>108</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
+        <v>subv27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1">
+        <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
+        <v>108</v>
+      </c>
+      <c r="H14" s="1">
+        <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
+        <v>120</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985EF64-7C2F-4272-AD0D-4D341F6E1612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3517AA6-880B-4DBC-B929-8A3B267435AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3405" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>code</t>
   </si>
@@ -191,10 +191,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition ref="D1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
+    <sortCondition ref="D1:D15"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,19 +688,19 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv30</v>
-      </c>
-      <c r="B5" t="s">
+        <v>subv27</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -717,16 +717,16 @@
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
+      <c r="A6" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>subh30</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>subv30</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
@@ -737,18 +737,18 @@
         <v>27/60 (6x10) +30</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>36</v>
       </c>
       <c r="G6" s="1">
         <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1">
         <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
@@ -756,25 +756,25 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="A7" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>subv40</v>
-      </c>
-      <c r="B7" t="s">
+        <v>subh30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
@@ -782,163 +782,163 @@
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>comv</v>
+        <v>subv40</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
       </c>
       <c r="D8" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>48</v>
+      </c>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>comh</v>
+        <v>subh40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
       <c r="D9" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>48</v>
+      </c>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="A10" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>comh30</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+      <c r="D10" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>comv30</v>
+        <v>comh</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>30</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="A12" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>comv36</v>
-      </c>
-      <c r="B12" t="s">
+        <v>comh30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>36</v>
       </c>
       <c r="G12" s="1">
         <f>IF(E12="v", VLOOKUP(B12, $K$2:$M$4,2)+F12, VLOOKUP(B12,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H12" s="1">
         <f>IF(E12="v", VLOOKUP(B12,$K$2:$M$4, 3), VLOOKUP(B12,$K$2:$M$4,2)+F12)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
@@ -947,50 +947,50 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>comh36</v>
+        <v>comv30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <f>IF(E13="v", VLOOKUP(B13, $K$2:$M$4,2)+F13, VLOOKUP(B13,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1">
         <f>IF(E13="v", VLOOKUP(B13,$K$2:$M$4, 3), VLOOKUP(B13,$K$2:$M$4,2)+F13)</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+      <c r="A14" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>subv27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>comv36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1004,10 +1004,43 @@
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
+        <v>comh36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1">
+        <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H15" s="1">
+        <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
+        <v>108</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3517AA6-880B-4DBC-B929-8A3B267435AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA4054-B6B2-46DB-B007-F96DA9E23904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3405" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="1725" yWindow="3750" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>code</t>
   </si>
@@ -81,31 +81,34 @@
     <t>color</t>
   </si>
   <si>
-    <t>orchid</t>
-  </si>
-  <si>
     <t>lightgreen</t>
   </si>
   <si>
     <t>lime</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>chartreuse</t>
   </si>
   <si>
-    <t>springgreen</t>
+    <t>limegreen</t>
+  </si>
+  <si>
+    <t>forestgreen</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>fuchsia</t>
+  </si>
+  <si>
+    <t>darkviolet</t>
   </si>
 </sst>
 </file>
@@ -191,10 +194,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
-    <sortCondition ref="D1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
+    <sortCondition ref="D1:D16"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +595,7 @@
         <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
@@ -619,7 +622,7 @@
         <v>27/60 (6x10)</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -631,7 +634,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
@@ -674,7 +677,7 @@
         <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -717,7 +720,7 @@
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -751,7 +754,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -771,7 +774,7 @@
         <v>27/60 (6x10) +30</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>36</v>
@@ -785,59 +788,59 @@
         <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>subv40</v>
-      </c>
-      <c r="B8" t="s">
+        <v>subv38</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C8" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +38</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
         <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+      <c r="A9" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>subh40</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>subv40</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>27/60 (6x10) +40</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
         <v>48</v>
@@ -851,103 +854,103 @@
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>comv</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>subh40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>48</v>
+      </c>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+      <c r="A11" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>comh</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="str">
+      <c r="D11" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>36/72 (6x12)</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>comh30</v>
+        <v>comh</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
-        <v>30</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <f>IF(E12="v", VLOOKUP(B12, $K$2:$M$4,2)+F12, VLOOKUP(B12,$K$2:$M$4,3))</f>
         <v>144</v>
       </c>
       <c r="H12" s="1">
         <f>IF(E12="v", VLOOKUP(B12,$K$2:$M$4, 3), VLOOKUP(B12,$K$2:$M$4,2)+F12)</f>
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>comv30</v>
+        <v>comh30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -960,87 +963,120 @@
         <v>36/72 (6x12) +30</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
         <f>IF(E13="v", VLOOKUP(B13, $K$2:$M$4,2)+F13, VLOOKUP(B13,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H13" s="1">
         <f>IF(E13="v", VLOOKUP(B13,$K$2:$M$4, 3), VLOOKUP(B13,$K$2:$M$4,2)+F13)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="A14" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>comv36</v>
-      </c>
-      <c r="B14" t="s">
+        <v>comv30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
         <v>144</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+      <c r="A15" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
-        <v>comh36</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>comv36</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>36/72 (6x12) +36</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>36</v>
       </c>
       <c r="G15" s="1">
         <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H15" s="1">
         <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
+        <v>144</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E16&amp;C16</f>
+        <v>comh36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <f>IF(E16="v", VLOOKUP(B16, $K$2:$M$4,2)+F16, VLOOKUP(B16,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H16" s="1">
+        <f>IF(E16="v", VLOOKUP(B16,$K$2:$M$4, 3), VLOOKUP(B16,$K$2:$M$4,2)+F16)</f>
         <v>108</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA4054-B6B2-46DB-B007-F96DA9E23904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AAAF3-FB3F-4B88-9171-23CB692D7B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="3750" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="2070" yWindow="4095" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>code</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>darkviolet</t>
+  </si>
+  <si>
+    <t>greenyellow</t>
   </si>
 </sst>
 </file>
@@ -194,10 +197,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I16">
-    <sortCondition ref="D1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
+    <sortCondition ref="D1:D17"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,34 +653,34 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
-        <v>subv25</v>
+        <v>subv20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +25</v>
+        <v>27/60 (6x10) +20</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <f>IF(E4="v", VLOOKUP(B4, $K$2:$M$4,2)+F4, VLOOKUP(B4,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1">
         <f>IF(E4="v", VLOOKUP(B4,$K$2:$M$4, 3), VLOOKUP(B4,$K$2:$M$4,2)+F4)</f>
         <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -693,51 +696,51 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv27</v>
+        <v>subv25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10) +25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1">
         <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>subv30</v>
-      </c>
-      <c r="B6" t="s">
+        <v>subv27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -754,16 +757,16 @@
         <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+      <c r="A7" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>subh30</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>subv30</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -774,18 +777,18 @@
         <v>27/60 (6x10) +30</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
         <v>36</v>
       </c>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
@@ -794,86 +797,86 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>subv38</v>
+        <v>subh30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +38</v>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>subv40</v>
-      </c>
-      <c r="B9" t="s">
+        <v>subv38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C9" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +38</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="A10" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>subh40</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>subv40</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>27/60 (6x10) +40</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <v>48</v>
@@ -891,57 +894,61 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="A11" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>comv</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>subh40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>48</v>
+      </c>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+      <c r="A12" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>comh</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="str">
+      <c r="D12" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>36/72 (6x12)</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <f>IF(E12="v", VLOOKUP(B12, $K$2:$M$4,2)+F12, VLOOKUP(B12,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
         <f>IF(E12="v", VLOOKUP(B12,$K$2:$M$4, 3), VLOOKUP(B12,$K$2:$M$4,2)+F12)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
@@ -950,40 +957,36 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>comh30</v>
+        <v>comh</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
-        <v>30</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1">
-        <v>36</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
         <f>IF(E13="v", VLOOKUP(B13, $K$2:$M$4,2)+F13, VLOOKUP(B13,$K$2:$M$4,3))</f>
         <v>144</v>
       </c>
       <c r="H13" s="1">
         <f>IF(E13="v", VLOOKUP(B13,$K$2:$M$4, 3), VLOOKUP(B13,$K$2:$M$4,2)+F13)</f>
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>comv30</v>
+        <v>comh30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -996,86 +999,119 @@
         <v>36/72 (6x12) +30</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="A15" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
-        <v>comv36</v>
-      </c>
-      <c r="B15" t="s">
+        <v>comv30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H15" s="1">
         <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
         <v>144</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
+      <c r="A16" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E16&amp;C16</f>
-        <v>comh36</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>comv36</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>36/72 (6x12) +36</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
         <v>36</v>
       </c>
       <c r="G16" s="1">
         <f>IF(E16="v", VLOOKUP(B16, $K$2:$M$4,2)+F16, VLOOKUP(B16,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1">
         <f>IF(E16="v", VLOOKUP(B16,$K$2:$M$4, 3), VLOOKUP(B16,$K$2:$M$4,2)+F16)</f>
+        <v>144</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E17&amp;C17</f>
+        <v>comh36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <f>IF(E17="v", VLOOKUP(B17, $K$2:$M$4,2)+F17, VLOOKUP(B17,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IF(E17="v", VLOOKUP(B17,$K$2:$M$4, 3), VLOOKUP(B17,$K$2:$M$4,2)+F17)</f>
         <v>108</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AAAF3-FB3F-4B88-9171-23CB692D7B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0802B-7731-4E36-9D94-EE565788A003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4095" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="10245" windowHeight="5460" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>code</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>greenyellow</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>darkcyan</t>
+  </si>
+  <si>
+    <t>mediumvioletred</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>darkturquoise</t>
+  </si>
+  <si>
+    <t>hotpink</t>
   </si>
 </sst>
 </file>
@@ -197,10 +215,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I17" totalsRowShown="0">
-  <autoFilter ref="A1:I17" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-    <sortCondition ref="D1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0">
+  <autoFilter ref="A1:I24" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I24">
+    <sortCondition ref="D1:D24"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -522,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,15 +593,15 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E2&amp;C2</f>
-        <v>subv</v>
+        <v>sub5v</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>27/60 (5x12)</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -591,14 +609,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f>IF(E2="v", VLOOKUP(B2, $K$2:$M$4,2)+F2, VLOOKUP(B2,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1">
         <f>IF(E2="v", VLOOKUP(B2,$K$2:$M$4, 3), VLOOKUP(B2,$K$2:$M$4,2)+F2)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
@@ -614,30 +632,34 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E3&amp;C3</f>
-        <v>subh</v>
+        <v>sub5v10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
       <c r="D3" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>27/60 (5x12) +10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
       <c r="G3" s="1">
         <f>IF(E3="v", VLOOKUP(B3, $K$2:$M$4,2)+F3, VLOOKUP(B3,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1">
         <f>IF(E3="v", VLOOKUP(B3,$K$2:$M$4, 3), VLOOKUP(B3,$K$2:$M$4,2)+F3)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
@@ -653,17 +675,17 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
-        <v>subv20</v>
+        <v>sub5v20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +20</v>
+        <v>27/60 (5x12) +20</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -673,14 +695,14 @@
       </c>
       <c r="G4" s="1">
         <f>IF(E4="v", VLOOKUP(B4, $K$2:$M$4,2)+F4, VLOOKUP(B4,$K$2:$M$4,3))</f>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1">
         <f>IF(E4="v", VLOOKUP(B4,$K$2:$M$4, 3), VLOOKUP(B4,$K$2:$M$4,2)+F4)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -696,223 +718,215 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv25</v>
+        <v>subv</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>25</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +25</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
-        <v>30</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1">
         <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
         <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>subv27</v>
+        <v>subh</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>27</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
         <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="A7" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>subv30</v>
-      </c>
-      <c r="B7" t="s">
+        <v>subv15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +15</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
         <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>subh30</v>
+        <v>subv20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>subv38</v>
+        <v>subv25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +38</v>
+        <v>27/60 (6x10) +25</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>subv40</v>
-      </c>
-      <c r="B10" t="s">
+        <v>subv27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C10" s="2">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
         <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>subh40</v>
+        <v>subh27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
@@ -920,198 +934,429 @@
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>comv</v>
+        <v>subv30</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>36</v>
+      </c>
       <c r="G12" s="1">
         <f>IF(E12="v", VLOOKUP(B12, $K$2:$M$4,2)+F12, VLOOKUP(B12,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1">
         <f>IF(E12="v", VLOOKUP(B12,$K$2:$M$4, 3), VLOOKUP(B12,$K$2:$M$4,2)+F12)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>comh</v>
+        <v>subh30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30</v>
+      </c>
       <c r="D13" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>36</v>
+      </c>
       <c r="G13" s="1">
         <f>IF(E13="v", VLOOKUP(B13, $K$2:$M$4,2)+F13, VLOOKUP(B13,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1">
         <f>IF(E13="v", VLOOKUP(B13,$K$2:$M$4, 3), VLOOKUP(B13,$K$2:$M$4,2)+F13)</f>
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>comh30</v>
+        <v>subv38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>27/60 (6x10) +38</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1">
         <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+      <c r="A15" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
-        <v>comv30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>subv40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
         <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1">
         <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="A16" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E16&amp;C16</f>
-        <v>comv36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+        <v>subh40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1">
         <f>IF(E16="v", VLOOKUP(B16, $K$2:$M$4,2)+F16, VLOOKUP(B16,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H16" s="1">
         <f>IF(E16="v", VLOOKUP(B16,$K$2:$M$4, 3), VLOOKUP(B16,$K$2:$M$4,2)+F16)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
+      <c r="A17" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E17&amp;C17</f>
-        <v>comh36</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+      <c r="D17" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <f>IF(E17="v", VLOOKUP(B17, $K$2:$M$4,2)+F17, VLOOKUP(B17,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1">
         <f>IF(E17="v", VLOOKUP(B17,$K$2:$M$4, 3), VLOOKUP(B17,$K$2:$M$4,2)+F17)</f>
+        <v>144</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E18&amp;C18</f>
+        <v>comh</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>IF(E18="v", VLOOKUP(B18, $K$2:$M$4,2)+F18, VLOOKUP(B18,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H18" s="1">
+        <f>IF(E18="v", VLOOKUP(B18,$K$2:$M$4, 3), VLOOKUP(B18,$K$2:$M$4,2)+F18)</f>
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E19&amp;C19</f>
+        <v>comv10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <f>IF(E19="v", VLOOKUP(B19, $K$2:$M$4,2)+F19, VLOOKUP(B19,$K$2:$M$4,3))</f>
+        <v>84</v>
+      </c>
+      <c r="H19" s="1">
+        <f>IF(E19="v", VLOOKUP(B19,$K$2:$M$4, 3), VLOOKUP(B19,$K$2:$M$4,2)+F19)</f>
+        <v>144</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E20&amp;C20</f>
+        <v>comv15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <f>IF(E20="v", VLOOKUP(B20, $K$2:$M$4,2)+F20, VLOOKUP(B20,$K$2:$M$4,3))</f>
+        <v>90</v>
+      </c>
+      <c r="H20" s="1">
+        <f>IF(E20="v", VLOOKUP(B20,$K$2:$M$4, 3), VLOOKUP(B20,$K$2:$M$4,2)+F20)</f>
+        <v>144</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E21&amp;C21</f>
+        <v>comh30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <f>IF(E21="v", VLOOKUP(B21, $K$2:$M$4,2)+F21, VLOOKUP(B21,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H21" s="1">
+        <f>IF(E21="v", VLOOKUP(B21,$K$2:$M$4, 3), VLOOKUP(B21,$K$2:$M$4,2)+F21)</f>
         <v>108</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E22&amp;C22</f>
+        <v>comv30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <f>IF(E22="v", VLOOKUP(B22, $K$2:$M$4,2)+F22, VLOOKUP(B22,$K$2:$M$4,3))</f>
+        <v>102</v>
+      </c>
+      <c r="H22" s="1">
+        <f>IF(E22="v", VLOOKUP(B22,$K$2:$M$4, 3), VLOOKUP(B22,$K$2:$M$4,2)+F22)</f>
+        <v>144</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E23&amp;C23</f>
+        <v>comv36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1">
+        <f>IF(E23="v", VLOOKUP(B23, $K$2:$M$4,2)+F23, VLOOKUP(B23,$K$2:$M$4,3))</f>
+        <v>108</v>
+      </c>
+      <c r="H23" s="1">
+        <f>IF(E23="v", VLOOKUP(B23,$K$2:$M$4, 3), VLOOKUP(B23,$K$2:$M$4,2)+F23)</f>
+        <v>144</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E24&amp;C24</f>
+        <v>comh36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <f>IF(E24="v", VLOOKUP(B24, $K$2:$M$4,2)+F24, VLOOKUP(B24,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H24" s="1">
+        <f>IF(E24="v", VLOOKUP(B24,$K$2:$M$4, 3), VLOOKUP(B24,$K$2:$M$4,2)+F24)</f>
+        <v>108</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0802B-7731-4E36-9D94-EE565788A003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B0466F-EC19-465D-B535-7B9C25D47CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="10245" windowHeight="5460" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="5040" yWindow="690" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>code</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>hotpink</t>
+  </si>
+  <si>
+    <t>deeppink</t>
+  </si>
+  <si>
+    <t>deepskyblue</t>
+  </si>
+  <si>
+    <t>skyblue</t>
   </si>
 </sst>
 </file>
@@ -215,10 +224,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0">
-  <autoFilter ref="A1:I24" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I24">
-    <sortCondition ref="D1:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I27" totalsRowShown="0">
+  <autoFilter ref="A1:I27" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
+    <sortCondition ref="D1:D27"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -540,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +711,7 @@
         <v>144</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -718,242 +727,242 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>subv</v>
+        <v>sub5v30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
       <c r="D5" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>27/60 (5x12) +30</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>36</v>
+      </c>
       <c r="G5" s="1">
         <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>subh</v>
+        <v>sub5v50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
       <c r="D6" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>27/60 (5x12) +50</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
       <c r="G6" s="1">
         <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
         <v>120</v>
       </c>
       <c r="H6" s="1">
         <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>subv15</v>
+        <v>subv</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>15</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +15</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1">
-        <v>18</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
         <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>subv20</v>
+        <v>subh</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +20</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>subv25</v>
+        <v>subv15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +25</v>
+        <v>27/60 (6x10) +15</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>subv27</v>
+        <v>subv20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10) +20</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
         <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>subh27</v>
+        <v>subv25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10) +25</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="A12" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>subv30</v>
-      </c>
-      <c r="B12" t="s">
+        <v>subv27</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -970,23 +979,23 @@
         <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>subh30</v>
+        <v>subh27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>27/60 (6x10) +27</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1003,62 +1012,62 @@
         <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+      <c r="A14" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>subv38</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>subv30</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +38</v>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
         <v>120</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="A15" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
-        <v>subv40</v>
-      </c>
-      <c r="B15" t="s">
+        <v>subh30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>40</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1">
         <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
@@ -1066,297 +1075,396 @@
       </c>
       <c r="H15" s="1">
         <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E16&amp;C16</f>
-        <v>subh40</v>
+        <v>subv38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+        <v>27/60 (6x10) +38</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1">
         <f>IF(E16="v", VLOOKUP(B16, $K$2:$M$4,2)+F16, VLOOKUP(B16,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1">
         <f>IF(E16="v", VLOOKUP(B16,$K$2:$M$4, 3), VLOOKUP(B16,$K$2:$M$4,2)+F16)</f>
         <v>120</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E17&amp;C17</f>
-        <v>comv</v>
+        <v>subv40</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
       </c>
       <c r="D17" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>48</v>
+      </c>
       <c r="G17" s="1">
         <f>IF(E17="v", VLOOKUP(B17, $K$2:$M$4,2)+F17, VLOOKUP(B17,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1">
         <f>IF(E17="v", VLOOKUP(B17,$K$2:$M$4, 3), VLOOKUP(B17,$K$2:$M$4,2)+F17)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E18&amp;C18</f>
-        <v>comh</v>
+        <v>subh40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40</v>
+      </c>
       <c r="D18" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>48</v>
+      </c>
       <c r="G18" s="1">
         <f>IF(E18="v", VLOOKUP(B18, $K$2:$M$4,2)+F18, VLOOKUP(B18,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1">
         <f>IF(E18="v", VLOOKUP(B18,$K$2:$M$4, 3), VLOOKUP(B18,$K$2:$M$4,2)+F18)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
+      <c r="A19" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E19&amp;C19</f>
-        <v>comv10</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +10</v>
+      <c r="D19" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
-        <v>12</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
         <f>IF(E19="v", VLOOKUP(B19, $K$2:$M$4,2)+F19, VLOOKUP(B19,$K$2:$M$4,3))</f>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1">
         <f>IF(E19="v", VLOOKUP(B19,$K$2:$M$4, 3), VLOOKUP(B19,$K$2:$M$4,2)+F19)</f>
         <v>144</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E20&amp;C20</f>
-        <v>comv15</v>
+        <v>comh</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +15</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1">
         <v>18</v>
       </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
         <f>IF(E20="v", VLOOKUP(B20, $K$2:$M$4,2)+F20, VLOOKUP(B20,$K$2:$M$4,3))</f>
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="H20" s="1">
         <f>IF(E20="v", VLOOKUP(B20,$K$2:$M$4, 3), VLOOKUP(B20,$K$2:$M$4,2)+F20)</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E21&amp;C21</f>
-        <v>comh30</v>
+        <v>comv10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12) +10</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
         <f>IF(E21="v", VLOOKUP(B21, $K$2:$M$4,2)+F21, VLOOKUP(B21,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1">
         <f>IF(E21="v", VLOOKUP(B21,$K$2:$M$4, 3), VLOOKUP(B21,$K$2:$M$4,2)+F21)</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E22&amp;C22</f>
-        <v>comv30</v>
+        <v>comv15</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12) +15</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1">
         <f>IF(E22="v", VLOOKUP(B22, $K$2:$M$4,2)+F22, VLOOKUP(B22,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1">
         <f>IF(E22="v", VLOOKUP(B22,$K$2:$M$4, 3), VLOOKUP(B22,$K$2:$M$4,2)+F22)</f>
         <v>144</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E23&amp;C23</f>
+        <v>comv22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
         <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E23&amp;C23</f>
-        <v>comv36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>36</v>
-      </c>
-      <c r="D23" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1">
-        <v>36</v>
       </c>
       <c r="G23" s="1">
         <f>IF(E23="v", VLOOKUP(B23, $K$2:$M$4,2)+F23, VLOOKUP(B23,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H23" s="1">
         <f>IF(E23="v", VLOOKUP(B23,$K$2:$M$4, 3), VLOOKUP(B23,$K$2:$M$4,2)+F23)</f>
         <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E24&amp;C24</f>
-        <v>comh36</v>
+        <v>comv30</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <f>IF(E24="v", VLOOKUP(B24, $K$2:$M$4,2)+F24, VLOOKUP(B24,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1">
         <f>IF(E24="v", VLOOKUP(B24,$K$2:$M$4, 3), VLOOKUP(B24,$K$2:$M$4,2)+F24)</f>
+        <v>144</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E25&amp;C25</f>
+        <v>comh30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1">
+        <f>IF(E25="v", VLOOKUP(B25, $K$2:$M$4,2)+F25, VLOOKUP(B25,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H25" s="1">
+        <f>IF(E25="v", VLOOKUP(B25,$K$2:$M$4, 3), VLOOKUP(B25,$K$2:$M$4,2)+F25)</f>
         <v>108</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E26&amp;C26</f>
+        <v>comv36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1">
+        <f>IF(E26="v", VLOOKUP(B26, $K$2:$M$4,2)+F26, VLOOKUP(B26,$K$2:$M$4,3))</f>
+        <v>108</v>
+      </c>
+      <c r="H26" s="1">
+        <f>IF(E26="v", VLOOKUP(B26,$K$2:$M$4, 3), VLOOKUP(B26,$K$2:$M$4,2)+F26)</f>
+        <v>144</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
+        <f>Table1[[#This Row],[spec]]&amp;E27&amp;C27</f>
+        <v>comh36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1">
+        <f>IF(E27="v", VLOOKUP(B27, $K$2:$M$4,2)+F27, VLOOKUP(B27,$K$2:$M$4,3))</f>
+        <v>144</v>
+      </c>
+      <c r="H27" s="1">
+        <f>IF(E27="v", VLOOKUP(B27,$K$2:$M$4, 3), VLOOKUP(B27,$K$2:$M$4,2)+F27)</f>
+        <v>108</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Datas/patchtables.xlsx
+++ b/Datas/patchtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODE\Workspace\GitHub Projects\SiteplanColorPlot\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B0466F-EC19-465D-B535-7B9C25D47CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429B4CF-068E-4FA4-BE35-18454533E40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="690" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
+    <workbookView xWindow="5385" yWindow="1035" windowWidth="10245" windowHeight="6000" xr2:uid="{199A0DCC-37CE-46E7-9F90-BF58DEF6FA53}"/>
   </bookViews>
   <sheets>
     <sheet name="patchtables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>code</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>lightgreen</t>
-  </si>
-  <si>
-    <t>lime</t>
   </si>
   <si>
     <t>h</t>
@@ -224,10 +221,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0">
+  <autoFilter ref="A1:I25" xr:uid="{63309D44-1FF3-4200-A984-A44F486645E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
+    <sortCondition ref="C1:C25"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1075CE5D-477F-4D2A-939D-C15D79C3424F}" name="code" dataDxfId="7">
@@ -549,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8DAFC-B19E-44AE-A92D-62DE394D1006}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,30 +599,34 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E2&amp;C2</f>
-        <v>sub5v</v>
+        <v>sub5v10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
       <c r="D2" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (5x12)</v>
+        <v>27/60 (5x12) +10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
       <c r="G2" s="1">
         <f>IF(E2="v", VLOOKUP(B2, $K$2:$M$4,2)+F2, VLOOKUP(B2,$K$2:$M$4,3))</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1">
         <f>IF(E2="v", VLOOKUP(B2,$K$2:$M$4, 3), VLOOKUP(B2,$K$2:$M$4,2)+F2)</f>
         <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
@@ -641,17 +642,17 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E3&amp;C3</f>
-        <v>sub5v10</v>
+        <v>comv10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (5x12) +10</v>
+        <v>36/72 (6x12) +10</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -661,7 +662,7 @@
       </c>
       <c r="G3" s="1">
         <f>IF(E3="v", VLOOKUP(B3, $K$2:$M$4,2)+F3, VLOOKUP(B3,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1">
         <f>IF(E3="v", VLOOKUP(B3,$K$2:$M$4, 3), VLOOKUP(B3,$K$2:$M$4,2)+F3)</f>
@@ -684,34 +685,34 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E4&amp;C4</f>
-        <v>sub5v20</v>
+        <v>subv15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (5x12) +20</v>
+        <v>27/60 (6x10) +15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <f>IF(E4="v", VLOOKUP(B4, $K$2:$M$4,2)+F4, VLOOKUP(B4,$K$2:$M$4,3))</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
         <f>IF(E4="v", VLOOKUP(B4,$K$2:$M$4, 3), VLOOKUP(B4,$K$2:$M$4,2)+F4)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
@@ -727,242 +728,250 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E5&amp;C5</f>
-        <v>sub5v30</v>
+        <v>comv15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (5x12) +30</v>
+        <v>36/72 (6x12) +15</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <f>IF(E5="v", VLOOKUP(B5, $K$2:$M$4,2)+F5, VLOOKUP(B5,$K$2:$M$4,3))</f>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
         <f>IF(E5="v", VLOOKUP(B5,$K$2:$M$4, 3), VLOOKUP(B5,$K$2:$M$4,2)+F5)</f>
         <v>144</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E6&amp;C6</f>
-        <v>sub5v50</v>
+        <v>sub5v20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (5x12) +50</v>
+        <v>27/60 (5x12) +20</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <f>IF(E6="v", VLOOKUP(B6, $K$2:$M$4,2)+F6, VLOOKUP(B6,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1">
         <f>IF(E6="v", VLOOKUP(B6,$K$2:$M$4, 3), VLOOKUP(B6,$K$2:$M$4,2)+F6)</f>
         <v>144</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E7&amp;C7</f>
-        <v>subv</v>
+        <v>subv20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>27/60 (6x10) +20</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
       <c r="G7" s="1">
         <f>IF(E7="v", VLOOKUP(B7, $K$2:$M$4,2)+F7, VLOOKUP(B7,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1">
         <f>IF(E7="v", VLOOKUP(B7,$K$2:$M$4, 3), VLOOKUP(B7,$K$2:$M$4,2)+F7)</f>
         <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E8&amp;C8</f>
-        <v>subh</v>
+        <v>comv22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22</v>
+      </c>
       <c r="D8" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10)</v>
+        <v>36/72 (6x12) +22</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
       <c r="G8" s="1">
         <f>IF(E8="v", VLOOKUP(B8, $K$2:$M$4,2)+F8, VLOOKUP(B8,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1">
         <f>IF(E8="v", VLOOKUP(B8,$K$2:$M$4, 3), VLOOKUP(B8,$K$2:$M$4,2)+F8)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E9&amp;C9</f>
-        <v>subv15</v>
+        <v>subv25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +15</v>
+        <v>27/60 (6x10) +25</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <f>IF(E9="v", VLOOKUP(B9, $K$2:$M$4,2)+F9, VLOOKUP(B9,$K$2:$M$4,3))</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1">
         <f>IF(E9="v", VLOOKUP(B9,$K$2:$M$4, 3), VLOOKUP(B9,$K$2:$M$4,2)+F9)</f>
         <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E10&amp;C10</f>
-        <v>subv20</v>
+        <v>comv30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +20</v>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <f>IF(E10="v", VLOOKUP(B10, $K$2:$M$4,2)+F10, VLOOKUP(B10,$K$2:$M$4,3))</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1">
         <f>IF(E10="v", VLOOKUP(B10,$K$2:$M$4, 3), VLOOKUP(B10,$K$2:$M$4,2)+F10)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E11&amp;C11</f>
-        <v>subv25</v>
+        <v>sub5v30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +25</v>
+        <v>27/60 (5x12) +30</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <f>IF(E11="v", VLOOKUP(B11, $K$2:$M$4,2)+F11, VLOOKUP(B11,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1">
         <f>IF(E11="v", VLOOKUP(B11,$K$2:$M$4, 3), VLOOKUP(B11,$K$2:$M$4,2)+F11)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+      <c r="A12" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E12&amp;C12</f>
-        <v>subv27</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>subv30</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -979,26 +988,26 @@
         <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E13&amp;C13</f>
-        <v>subh27</v>
+        <v>subh30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +27</v>
+        <v>27/60 (6x10) +30</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
         <v>36</v>
@@ -1012,158 +1021,158 @@
         <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="A14" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E14&amp;C14</f>
-        <v>subv30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
+        <v>comh30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>36/72 (6x12) +30</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
         <v>36</v>
       </c>
       <c r="G14" s="1">
         <f>IF(E14="v", VLOOKUP(B14, $K$2:$M$4,2)+F14, VLOOKUP(B14,$K$2:$M$4,3))</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H14" s="1">
         <f>IF(E14="v", VLOOKUP(B14,$K$2:$M$4, 3), VLOOKUP(B14,$K$2:$M$4,2)+F14)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+      <c r="A15" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E15&amp;C15</f>
-        <v>subh30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +30</v>
+        <v>comv36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12) +36</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>36</v>
       </c>
       <c r="G15" s="1">
         <f>IF(E15="v", VLOOKUP(B15, $K$2:$M$4,2)+F15, VLOOKUP(B15,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H15" s="1">
         <f>IF(E15="v", VLOOKUP(B15,$K$2:$M$4, 3), VLOOKUP(B15,$K$2:$M$4,2)+F15)</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E16&amp;C16</f>
-        <v>subv38</v>
+        <v>comh36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +38</v>
+        <v>36/72 (6x12) +36</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1">
         <f>IF(E16="v", VLOOKUP(B16, $K$2:$M$4,2)+F16, VLOOKUP(B16,$K$2:$M$4,3))</f>
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H16" s="1">
         <f>IF(E16="v", VLOOKUP(B16,$K$2:$M$4, 3), VLOOKUP(B16,$K$2:$M$4,2)+F16)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="A17" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E17&amp;C17</f>
-        <v>subv40</v>
-      </c>
-      <c r="B17" t="s">
+        <v>subv38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>27/60 (6x10) +40</v>
+      <c r="C17" s="2">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +38</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1">
         <f>IF(E17="v", VLOOKUP(B17, $K$2:$M$4,2)+F17, VLOOKUP(B17,$K$2:$M$4,3))</f>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H17" s="1">
         <f>IF(E17="v", VLOOKUP(B17,$K$2:$M$4, 3), VLOOKUP(B17,$K$2:$M$4,2)+F17)</f>
         <v>120</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
+      <c r="A18" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E18&amp;C18</f>
-        <v>subh40</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>subv40</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
         <v>27/60 (6x10) +40</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1">
         <v>48</v>
@@ -1177,300 +1186,222 @@
         <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+      <c r="A19" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E19&amp;C19</f>
-        <v>comv</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>subh40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>27/60 (6x10) +40</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>48</v>
+      </c>
       <c r="G19" s="1">
         <f>IF(E19="v", VLOOKUP(B19, $K$2:$M$4,2)+F19, VLOOKUP(B19,$K$2:$M$4,3))</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H19" s="1">
         <f>IF(E19="v", VLOOKUP(B19,$K$2:$M$4, 3), VLOOKUP(B19,$K$2:$M$4,2)+F19)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E20&amp;C20</f>
-        <v>comh</v>
+        <v>sub5v50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
       <c r="D20" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12)</v>
+        <v>27/60 (5x12) +50</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
       <c r="G20" s="1">
         <f>IF(E20="v", VLOOKUP(B20, $K$2:$M$4,2)+F20, VLOOKUP(B20,$K$2:$M$4,3))</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H20" s="1">
         <f>IF(E20="v", VLOOKUP(B20,$K$2:$M$4, 3), VLOOKUP(B20,$K$2:$M$4,2)+F20)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E21&amp;C21</f>
-        <v>comv10</v>
+        <v>sub5v</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2">
         <v>10</v>
       </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +10</v>
+        <v>27/60 (5x12)</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1">
-        <v>12</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <f>IF(E21="v", VLOOKUP(B21, $K$2:$M$4,2)+F21, VLOOKUP(B21,$K$2:$M$4,3))</f>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1">
         <f>IF(E21="v", VLOOKUP(B21,$K$2:$M$4, 3), VLOOKUP(B21,$K$2:$M$4,2)+F21)</f>
         <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E22&amp;C22</f>
-        <v>comv15</v>
+        <v>subv</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +15</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1">
-        <v>18</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <f>IF(E22="v", VLOOKUP(B22, $K$2:$M$4,2)+F22, VLOOKUP(B22,$K$2:$M$4,3))</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1">
         <f>IF(E22="v", VLOOKUP(B22,$K$2:$M$4, 3), VLOOKUP(B22,$K$2:$M$4,2)+F22)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E23&amp;C23</f>
-        <v>comv22</v>
+        <v>subh</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +22</v>
+        <v>27/60 (6x10)</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <f>IF(E23="v", VLOOKUP(B23, $K$2:$M$4,2)+F23, VLOOKUP(B23,$K$2:$M$4,3))</f>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H23" s="1">
         <f>IF(E23="v", VLOOKUP(B23,$K$2:$M$4, 3), VLOOKUP(B23,$K$2:$M$4,2)+F23)</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
+      <c r="A24" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E24&amp;C24</f>
-        <v>comv30</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>comv</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+      <c r="D24" t="str">
+        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1">
-        <v>30</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f>IF(E24="v", VLOOKUP(B24, $K$2:$M$4,2)+F24, VLOOKUP(B24,$K$2:$M$4,3))</f>
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1">
         <f>IF(E24="v", VLOOKUP(B24,$K$2:$M$4, 3), VLOOKUP(B24,$K$2:$M$4,2)+F24)</f>
         <v>144</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>Table1[[#This Row],[spec]]&amp;E25&amp;C25</f>
-        <v>comh30</v>
+        <v>comh</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="2">
-        <v>30</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="str">
         <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +30</v>
+        <v>36/72 (6x12)</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="1">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <f>IF(E25="v", VLOOKUP(B25, $K$2:$M$4,2)+F25, VLOOKUP(B25,$K$2:$M$4,3))</f>
         <v>144</v>
       </c>
       <c r="H25" s="1">
         <f>IF(E25="v", VLOOKUP(B25,$K$2:$M$4, 3), VLOOKUP(B25,$K$2:$M$4,2)+F25)</f>
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E26&amp;C26</f>
-        <v>comv36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>36</v>
-      </c>
-      <c r="D26" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1">
-        <f>IF(E26="v", VLOOKUP(B26, $K$2:$M$4,2)+F26, VLOOKUP(B26,$K$2:$M$4,3))</f>
-        <v>108</v>
-      </c>
-      <c r="H26" s="1">
-        <f>IF(E26="v", VLOOKUP(B26,$K$2:$M$4, 3), VLOOKUP(B26,$K$2:$M$4,2)+F26)</f>
-        <v>144</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="str">
-        <f>Table1[[#This Row],[spec]]&amp;E27&amp;C27</f>
-        <v>comh36</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f>IF(Table1[[#This Row],[spec]]="com","36/72 (6x12)",IF(Table1[[#This Row],[spec]]="sub","27/60 (6x10)","27/60 (5x12)"))&amp;IF(Table1[[#This Row],[hooktype]]="",""," +"&amp;Table1[[#This Row],[hooktype]])</f>
-        <v>36/72 (6x12) +36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="1">
-        <v>36</v>
-      </c>
-      <c r="G27" s="1">
-        <f>IF(E27="v", VLOOKUP(B27, $K$2:$M$4,2)+F27, VLOOKUP(B27,$K$2:$M$4,3))</f>
-        <v>144</v>
-      </c>
-      <c r="H27" s="1">
-        <f>IF(E27="v", VLOOKUP(B27,$K$2:$M$4, 3), VLOOKUP(B27,$K$2:$M$4,2)+F27)</f>
-        <v>108</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
